--- a/public/template_excell/BODEksisting.xlsx
+++ b/public/template_excell/BODEksisting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DlhKotaCimahi\public\templateExcellBODEksisting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DlhKotaCimahi\public\template_excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A26C55-8C18-46F7-BB66-874946B77DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77D8458-D037-4762-9C9C-7A3F2944F069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel 29" sheetId="1" r:id="rId1"/>
@@ -618,10 +618,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,10 +626,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +982,7 @@
       <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AS10" sqref="AS10"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,14 +1004,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1050,7 +1050,7 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1181,7 +1181,7 @@
       <c r="E6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <v>43864</v>
       </c>
       <c r="G6" s="5">
@@ -1313,7 +1313,7 @@
       <c r="E7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="30">
         <v>43864</v>
       </c>
       <c r="G7" s="9">
@@ -1430,51 +1430,51 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
     </row>
     <row r="9" spans="1:44" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
@@ -1524,49 +1524,49 @@
       <c r="AQ9" s="34"/>
     </row>
     <row r="10" spans="1:44" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
     </row>
     <row r="11" spans="1:44" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
@@ -1589,7 +1589,7 @@
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1703,7 +1703,7 @@
       <c r="AQ12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AR12" s="30"/>
+      <c r="AR12" s="28"/>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1711,7 +1711,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
@@ -1757,7 +1757,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="32"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
@@ -1803,7 +1803,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
@@ -1849,7 +1849,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
@@ -1895,7 +1895,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="13"/>
       <c r="H17" s="11"/>
       <c r="I17" s="10"/>
@@ -1941,7 +1941,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
@@ -1987,7 +1987,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
@@ -2033,7 +2033,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="9"/>
       <c r="H20" s="16"/>
       <c r="I20" s="10"/>
@@ -2079,7 +2079,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="13"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
@@ -2125,7 +2125,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
@@ -2171,7 +2171,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="16"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
@@ -2217,7 +2217,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
@@ -2263,7 +2263,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="15"/>
       <c r="H25" s="4"/>
       <c r="I25" s="10"/>
@@ -2309,7 +2309,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="10"/>
@@ -2355,7 +2355,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="10"/>
@@ -2418,38 +2418,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="20" t="s">
         <v>80</v>
       </c>
